--- a/doc/Профиль-С прайс-лист.xlsx
+++ b/doc/Профиль-С прайс-лист.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17300"/>
+    <workbookView windowHeight="17750"/>
   </bookViews>
   <sheets>
     <sheet name="Страница 1" sheetId="1" r:id="rId1"/>
@@ -13,45 +13,15 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Трубы стальные электросварные прямошовные</t>
-  </si>
-  <si>
-    <t>прямоугольные ГОСТ 8645-68</t>
-  </si>
-  <si>
-    <t>от 10.10.2023</t>
-  </si>
-  <si>
-    <t>Типоразмер</t>
-  </si>
-  <si>
-    <t>Толщина стенки</t>
-  </si>
-  <si>
-    <t>Вес 1 п/м</t>
-  </si>
-  <si>
-    <t>Цена за 1 п/м c НДС</t>
-  </si>
-  <si>
-    <t>Цена за 1 тонну с НДС</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,13 +29,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -417,27 +380,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -541,152 +489,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -695,26 +643,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1086,707 +1015,656 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18.6363636363636" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.2727272727273" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.2727272727273" style="1" customWidth="1"/>
     <col min="3" max="3" width="28" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.7272727272727" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.1818181818182" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.1818181818182" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="88" customHeight="1" spans="2:5">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" ht="34" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" ht="88" customHeight="1"/>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" ht="35" customHeight="1" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" ht="35" customHeight="1" spans="1:5">
-      <c r="A4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>7</v>
-      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="10"/>
+      <c r="B20" s="3"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="10"/>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="10"/>
+      <c r="B22" s="3"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="10"/>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="10"/>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="10"/>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="10"/>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="10"/>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="10"/>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="10"/>
+      <c r="B29" s="3"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="10"/>
+      <c r="B30" s="3"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="10"/>
+      <c r="B31" s="3"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="10"/>
+      <c r="B32" s="3"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="10"/>
+      <c r="B33" s="3"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="10"/>
+      <c r="B34" s="3"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="10"/>
+      <c r="B35" s="3"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="10"/>
+      <c r="B36" s="3"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="10"/>
+      <c r="B37" s="3"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="10"/>
+      <c r="B38" s="3"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="10"/>
+      <c r="B39" s="3"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="10"/>
+      <c r="B40" s="3"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="10"/>
+      <c r="B41" s="3"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="10"/>
+      <c r="B42" s="3"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="10"/>
+      <c r="B43" s="3"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="10"/>
+      <c r="B44" s="3"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="10"/>
+      <c r="B45" s="3"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="10"/>
+      <c r="B46" s="3"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="10"/>
+      <c r="B47" s="3"/>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="10"/>
+      <c r="B48" s="3"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="10"/>
+      <c r="B49" s="3"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="10"/>
+      <c r="B50" s="3"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="10"/>
+      <c r="B51" s="3"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="10"/>
+      <c r="B52" s="3"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="10"/>
+      <c r="B53" s="3"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="10"/>
+      <c r="B54" s="3"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="10"/>
+      <c r="B55" s="3"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="10"/>
+      <c r="B56" s="3"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="10"/>
+      <c r="B57" s="3"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="10"/>
+      <c r="B58" s="3"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="10"/>
+      <c r="B59" s="3"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="10"/>
+      <c r="B60" s="3"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="10"/>
+      <c r="B61" s="3"/>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="10"/>
+      <c r="B62" s="3"/>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="10"/>
+      <c r="B63" s="3"/>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="10"/>
+      <c r="B64" s="3"/>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="10"/>
+      <c r="B65" s="3"/>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="10"/>
+      <c r="B66" s="3"/>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="10"/>
+      <c r="B67" s="3"/>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="10"/>
+      <c r="B68" s="3"/>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="10"/>
+      <c r="B69" s="3"/>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="10"/>
+      <c r="B70" s="3"/>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="10"/>
+      <c r="B71" s="3"/>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="10"/>
+      <c r="B72" s="3"/>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="10"/>
+      <c r="B73" s="3"/>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="10"/>
+      <c r="B74" s="3"/>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="10"/>
+      <c r="B75" s="3"/>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="10"/>
+      <c r="B76" s="3"/>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="10"/>
+      <c r="B77" s="3"/>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="10"/>
+      <c r="B78" s="3"/>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="10"/>
+      <c r="B79" s="3"/>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="10"/>
+      <c r="B80" s="3"/>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="10"/>
+      <c r="B81" s="3"/>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="10"/>
+      <c r="B82" s="3"/>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="10"/>
+      <c r="B83" s="3"/>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="10"/>
+      <c r="B84" s="3"/>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="10"/>
+      <c r="B85" s="3"/>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="10"/>
+      <c r="B86" s="3"/>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="10"/>
+      <c r="B87" s="3"/>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="10"/>
+      <c r="B88" s="3"/>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="10"/>
+      <c r="B89" s="3"/>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="10"/>
+      <c r="B90" s="3"/>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="10"/>
+      <c r="B91" s="3"/>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="10"/>
+      <c r="B92" s="3"/>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="10"/>
+      <c r="B93" s="3"/>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="10"/>
+      <c r="B94" s="3"/>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="10"/>
+      <c r="B95" s="3"/>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="10"/>
+      <c r="B96" s="3"/>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="10"/>
+      <c r="B97" s="3"/>
     </row>
     <row r="98" spans="2:2">
-      <c r="B98" s="10"/>
+      <c r="B98" s="3"/>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="10"/>
+      <c r="B99" s="3"/>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="10"/>
+      <c r="B100" s="3"/>
     </row>
     <row r="101" spans="2:2">
-      <c r="B101" s="10"/>
+      <c r="B101" s="3"/>
     </row>
     <row r="102" spans="2:2">
-      <c r="B102" s="10"/>
+      <c r="B102" s="3"/>
     </row>
     <row r="103" spans="2:2">
-      <c r="B103" s="10"/>
+      <c r="B103" s="3"/>
     </row>
     <row r="104" spans="2:2">
-      <c r="B104" s="10"/>
+      <c r="B104" s="3"/>
     </row>
     <row r="105" spans="2:2">
-      <c r="B105" s="10"/>
+      <c r="B105" s="3"/>
     </row>
     <row r="106" spans="2:2">
-      <c r="B106" s="10"/>
+      <c r="B106" s="3"/>
     </row>
     <row r="107" spans="2:2">
-      <c r="B107" s="10"/>
+      <c r="B107" s="3"/>
     </row>
     <row r="108" spans="2:2">
-      <c r="B108" s="10"/>
+      <c r="B108" s="3"/>
     </row>
     <row r="109" spans="2:2">
-      <c r="B109" s="10"/>
+      <c r="B109" s="3"/>
     </row>
     <row r="110" spans="2:2">
-      <c r="B110" s="10"/>
+      <c r="B110" s="3"/>
     </row>
     <row r="111" spans="2:2">
-      <c r="B111" s="10"/>
+      <c r="B111" s="3"/>
     </row>
     <row r="112" spans="2:2">
-      <c r="B112" s="10"/>
+      <c r="B112" s="3"/>
     </row>
     <row r="113" spans="2:2">
-      <c r="B113" s="10"/>
+      <c r="B113" s="3"/>
     </row>
     <row r="114" spans="2:2">
-      <c r="B114" s="10"/>
+      <c r="B114" s="3"/>
     </row>
     <row r="115" spans="2:2">
-      <c r="B115" s="10"/>
+      <c r="B115" s="3"/>
     </row>
     <row r="116" spans="2:2">
-      <c r="B116" s="10"/>
+      <c r="B116" s="3"/>
     </row>
     <row r="117" spans="2:2">
-      <c r="B117" s="10"/>
+      <c r="B117" s="3"/>
     </row>
     <row r="118" spans="2:2">
-      <c r="B118" s="10"/>
+      <c r="B118" s="3"/>
     </row>
     <row r="119" spans="2:2">
-      <c r="B119" s="10"/>
+      <c r="B119" s="3"/>
     </row>
     <row r="120" spans="2:2">
-      <c r="B120" s="10"/>
+      <c r="B120" s="3"/>
     </row>
     <row r="121" spans="2:2">
-      <c r="B121" s="10"/>
+      <c r="B121" s="3"/>
     </row>
     <row r="122" spans="2:2">
-      <c r="B122" s="10"/>
+      <c r="B122" s="3"/>
     </row>
     <row r="123" spans="2:2">
-      <c r="B123" s="10"/>
+      <c r="B123" s="3"/>
     </row>
     <row r="124" spans="2:2">
-      <c r="B124" s="10"/>
+      <c r="B124" s="3"/>
     </row>
     <row r="125" spans="2:2">
-      <c r="B125" s="10"/>
+      <c r="B125" s="3"/>
     </row>
     <row r="126" spans="2:2">
-      <c r="B126" s="10"/>
+      <c r="B126" s="3"/>
     </row>
     <row r="127" spans="2:2">
-      <c r="B127" s="10"/>
+      <c r="B127" s="3"/>
     </row>
     <row r="128" spans="2:2">
-      <c r="B128" s="10"/>
+      <c r="B128" s="3"/>
     </row>
     <row r="129" spans="2:2">
-      <c r="B129" s="10"/>
+      <c r="B129" s="3"/>
     </row>
     <row r="130" spans="2:2">
-      <c r="B130" s="10"/>
+      <c r="B130" s="3"/>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="10"/>
+      <c r="B131" s="3"/>
     </row>
     <row r="132" spans="2:2">
-      <c r="B132" s="10"/>
+      <c r="B132" s="3"/>
     </row>
     <row r="133" spans="2:2">
-      <c r="B133" s="10"/>
+      <c r="B133" s="3"/>
     </row>
     <row r="134" spans="2:2">
-      <c r="B134" s="10"/>
+      <c r="B134" s="3"/>
     </row>
     <row r="135" spans="2:2">
-      <c r="B135" s="10"/>
+      <c r="B135" s="3"/>
     </row>
     <row r="136" spans="2:2">
-      <c r="B136" s="10"/>
+      <c r="B136" s="3"/>
     </row>
     <row r="137" spans="2:2">
-      <c r="B137" s="10"/>
+      <c r="B137" s="3"/>
     </row>
     <row r="138" spans="2:2">
-      <c r="B138" s="10"/>
+      <c r="B138" s="3"/>
     </row>
     <row r="139" spans="2:2">
-      <c r="B139" s="10"/>
+      <c r="B139" s="3"/>
     </row>
     <row r="140" spans="2:2">
-      <c r="B140" s="10"/>
+      <c r="B140" s="3"/>
     </row>
     <row r="141" spans="2:2">
-      <c r="B141" s="10"/>
+      <c r="B141" s="3"/>
     </row>
     <row r="142" spans="2:2">
-      <c r="B142" s="10"/>
+      <c r="B142" s="3"/>
     </row>
     <row r="143" spans="2:2">
-      <c r="B143" s="10"/>
+      <c r="B143" s="3"/>
     </row>
     <row r="144" spans="2:2">
-      <c r="B144" s="10"/>
+      <c r="B144" s="3"/>
     </row>
     <row r="145" spans="2:2">
-      <c r="B145" s="10"/>
+      <c r="B145" s="3"/>
     </row>
     <row r="146" spans="2:2">
-      <c r="B146" s="10"/>
+      <c r="B146" s="3"/>
     </row>
     <row r="147" spans="2:2">
-      <c r="B147" s="10"/>
+      <c r="B147" s="3"/>
     </row>
     <row r="148" spans="2:2">
-      <c r="B148" s="10"/>
+      <c r="B148" s="3"/>
     </row>
     <row r="149" spans="2:2">
-      <c r="B149" s="10"/>
+      <c r="B149" s="3"/>
     </row>
     <row r="150" spans="2:2">
-      <c r="B150" s="10"/>
+      <c r="B150" s="3"/>
     </row>
     <row r="151" spans="2:2">
-      <c r="B151" s="10"/>
+      <c r="B151" s="3"/>
     </row>
     <row r="152" spans="2:2">
-      <c r="B152" s="10"/>
+      <c r="B152" s="3"/>
     </row>
     <row r="153" spans="2:2">
-      <c r="B153" s="10"/>
+      <c r="B153" s="3"/>
     </row>
     <row r="154" spans="2:2">
-      <c r="B154" s="10"/>
+      <c r="B154" s="3"/>
     </row>
     <row r="155" spans="2:2">
-      <c r="B155" s="10"/>
+      <c r="B155" s="3"/>
     </row>
     <row r="156" spans="2:2">
-      <c r="B156" s="10"/>
+      <c r="B156" s="3"/>
     </row>
     <row r="157" spans="2:2">
-      <c r="B157" s="10"/>
+      <c r="B157" s="3"/>
     </row>
     <row r="158" spans="2:2">
-      <c r="B158" s="10"/>
+      <c r="B158" s="3"/>
     </row>
     <row r="159" spans="2:2">
-      <c r="B159" s="10"/>
+      <c r="B159" s="3"/>
     </row>
     <row r="160" spans="2:2">
-      <c r="B160" s="10"/>
+      <c r="B160" s="3"/>
     </row>
     <row r="161" spans="2:2">
-      <c r="B161" s="10"/>
+      <c r="B161" s="3"/>
     </row>
     <row r="162" spans="2:2">
-      <c r="B162" s="10"/>
+      <c r="B162" s="3"/>
     </row>
     <row r="163" spans="2:2">
-      <c r="B163" s="10"/>
+      <c r="B163" s="3"/>
     </row>
     <row r="164" spans="2:2">
-      <c r="B164" s="10"/>
+      <c r="B164" s="3"/>
     </row>
     <row r="165" spans="2:2">
-      <c r="B165" s="10"/>
+      <c r="B165" s="3"/>
     </row>
     <row r="166" spans="2:2">
-      <c r="B166" s="10"/>
+      <c r="B166" s="3"/>
     </row>
     <row r="167" spans="2:2">
-      <c r="B167" s="10"/>
+      <c r="B167" s="3"/>
     </row>
     <row r="168" spans="2:2">
-      <c r="B168" s="10"/>
+      <c r="B168" s="3"/>
     </row>
     <row r="169" spans="2:2">
-      <c r="B169" s="10"/>
+      <c r="B169" s="3"/>
     </row>
     <row r="170" spans="2:2">
-      <c r="B170" s="10"/>
+      <c r="B170" s="3"/>
     </row>
     <row r="171" spans="2:2">
-      <c r="B171" s="10"/>
+      <c r="B171" s="3"/>
     </row>
     <row r="172" spans="2:2">
-      <c r="B172" s="10"/>
+      <c r="B172" s="3"/>
     </row>
     <row r="173" spans="2:2">
-      <c r="B173" s="10"/>
+      <c r="B173" s="3"/>
     </row>
     <row r="174" spans="2:2">
-      <c r="B174" s="10"/>
+      <c r="B174" s="3"/>
     </row>
     <row r="175" spans="2:2">
-      <c r="B175" s="10"/>
+      <c r="B175" s="3"/>
     </row>
     <row r="176" spans="2:2">
-      <c r="B176" s="10"/>
+      <c r="B176" s="3"/>
     </row>
     <row r="177" spans="2:2">
-      <c r="B177" s="10"/>
+      <c r="B177" s="3"/>
     </row>
     <row r="178" spans="2:2">
-      <c r="B178" s="10"/>
+      <c r="B178" s="3"/>
     </row>
     <row r="179" spans="2:2">
-      <c r="B179" s="10"/>
+      <c r="B179" s="3"/>
     </row>
     <row r="180" spans="2:2">
-      <c r="B180" s="10"/>
+      <c r="B180" s="3"/>
     </row>
     <row r="181" spans="2:2">
-      <c r="B181" s="10"/>
+      <c r="B181" s="3"/>
     </row>
     <row r="182" spans="2:2">
-      <c r="B182" s="10"/>
+      <c r="B182" s="3"/>
     </row>
     <row r="183" spans="2:2">
-      <c r="B183" s="10"/>
+      <c r="B183" s="3"/>
     </row>
     <row r="184" spans="2:2">
-      <c r="B184" s="10"/>
+      <c r="B184" s="3"/>
     </row>
     <row r="185" spans="2:2">
-      <c r="B185" s="10"/>
+      <c r="B185" s="3"/>
     </row>
     <row r="186" spans="2:2">
-      <c r="B186" s="10"/>
+      <c r="B186" s="3"/>
     </row>
     <row r="187" spans="2:2">
-      <c r="B187" s="10"/>
+      <c r="B187" s="3"/>
     </row>
     <row r="188" spans="2:2">
-      <c r="B188" s="10"/>
+      <c r="B188" s="3"/>
     </row>
     <row r="189" spans="2:2">
-      <c r="B189" s="10"/>
+      <c r="B189" s="3"/>
     </row>
     <row r="190" spans="2:2">
-      <c r="B190" s="10"/>
+      <c r="B190" s="3"/>
     </row>
     <row r="191" spans="2:2">
-      <c r="B191" s="10"/>
+      <c r="B191" s="3"/>
     </row>
     <row r="192" spans="2:2">
-      <c r="B192" s="10"/>
+      <c r="B192" s="3"/>
     </row>
     <row r="193" spans="2:2">
-      <c r="B193" s="10"/>
+      <c r="B193" s="3"/>
     </row>
     <row r="194" spans="2:2">
-      <c r="B194" s="10"/>
+      <c r="B194" s="3"/>
     </row>
     <row r="195" spans="2:2">
-      <c r="B195" s="10"/>
+      <c r="B195" s="3"/>
     </row>
     <row r="196" spans="2:2">
-      <c r="B196" s="10"/>
+      <c r="B196" s="3"/>
     </row>
     <row r="197" spans="2:2">
-      <c r="B197" s="10"/>
-    </row>
-    <row r="198" spans="2:2">
-      <c r="B198" s="10"/>
-    </row>
-    <row r="199" spans="2:2">
-      <c r="B199" s="10"/>
-    </row>
-    <row r="200" spans="2:2">
-      <c r="B200" s="10"/>
-    </row>
-    <row r="201" spans="2:2">
-      <c r="B201" s="10"/>
+      <c r="B197" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
